--- a/data/league_data/france/19/france_passing.xlsx
+++ b/data/league_data/france/19/france_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067C8C0-A5BC-1B41-B528-2531DDBDF27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F20B48-CB03-B641-9220-C0A278C193BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,9 +868,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1261,9 +1258,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1838,6 +1832,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8082,7 +8082,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>64</v>
@@ -20410,7 +20410,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>259</v>
@@ -20502,7 +20502,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>61</v>
@@ -20594,7 +20594,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>259</v>
@@ -20686,7 +20686,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>25</v>
@@ -20778,10 +20778,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>49</v>
@@ -20870,7 +20870,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>245</v>
@@ -20962,7 +20962,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>48</v>
@@ -21054,7 +21054,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>25</v>
@@ -21146,7 +21146,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>25</v>
@@ -21238,7 +21238,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>25</v>
@@ -21330,7 +21330,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>25</v>
@@ -21422,7 +21422,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>33</v>
@@ -21514,7 +21514,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>266</v>
@@ -21606,7 +21606,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>25</v>
@@ -21698,7 +21698,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>25</v>
@@ -21790,7 +21790,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>109</v>
@@ -21882,7 +21882,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>25</v>
@@ -21974,7 +21974,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>25</v>
@@ -22066,7 +22066,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>25</v>
@@ -22158,10 +22158,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>22</v>
@@ -22250,7 +22250,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>109</v>
@@ -22342,7 +22342,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>45</v>
@@ -22434,10 +22434,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>77</v>
@@ -22526,7 +22526,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>25</v>
@@ -22618,10 +22618,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>52</v>
@@ -22710,10 +22710,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>97</v>
@@ -22802,7 +22802,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>25</v>
@@ -22894,7 +22894,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>64</v>
@@ -22986,7 +22986,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>202</v>
@@ -23078,7 +23078,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>45</v>
@@ -23170,7 +23170,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>109</v>
@@ -23262,7 +23262,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>25</v>
@@ -23354,7 +23354,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>33</v>
@@ -23446,7 +23446,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>33</v>
@@ -23538,7 +23538,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>25</v>
@@ -23630,7 +23630,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>25</v>
@@ -23722,7 +23722,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>25</v>
@@ -23814,7 +23814,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>64</v>
@@ -23906,10 +23906,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>22</v>
@@ -23998,7 +23998,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>25</v>
@@ -24090,10 +24090,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>77</v>
@@ -24182,7 +24182,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>276</v>
@@ -24274,7 +24274,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>107</v>
@@ -24366,7 +24366,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>109</v>
@@ -24458,10 +24458,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>77</v>
@@ -24550,7 +24550,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>25</v>
@@ -24642,7 +24642,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>25</v>
@@ -24734,7 +24734,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>64</v>
@@ -24826,10 +24826,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>22</v>
@@ -24918,7 +24918,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>33</v>
@@ -25010,7 +25010,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>25</v>
@@ -25102,7 +25102,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>25</v>
@@ -25194,7 +25194,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>48</v>
@@ -25286,7 +25286,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>25</v>
@@ -25378,7 +25378,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>45</v>
@@ -25470,7 +25470,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>64</v>
@@ -25562,7 +25562,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>118</v>
@@ -25654,7 +25654,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>25</v>
@@ -25746,7 +25746,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>64</v>
@@ -25838,7 +25838,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>25</v>
@@ -25930,7 +25930,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>61</v>
@@ -26022,7 +26022,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>91</v>
@@ -26114,7 +26114,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>73</v>
@@ -26206,7 +26206,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>115</v>
@@ -26298,7 +26298,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>80</v>
@@ -26390,7 +26390,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>25</v>
@@ -26482,7 +26482,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>113</v>
@@ -26574,10 +26574,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>52</v>
@@ -26666,7 +26666,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>25</v>
@@ -26758,7 +26758,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>64</v>
@@ -26850,7 +26850,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>48</v>
@@ -26942,10 +26942,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>52</v>
@@ -27034,7 +27034,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>61</v>
@@ -27126,7 +27126,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>25</v>
@@ -27218,7 +27218,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>48</v>
@@ -27310,7 +27310,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>64</v>
@@ -27402,7 +27402,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>25</v>
@@ -27494,10 +27494,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>77</v>
@@ -27586,7 +27586,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>25</v>
@@ -27678,7 +27678,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>25</v>
@@ -27770,7 +27770,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>25</v>
@@ -27862,7 +27862,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>143</v>
@@ -27954,7 +27954,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>25</v>
@@ -28046,7 +28046,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>21</v>
@@ -28138,7 +28138,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>73</v>
@@ -28230,7 +28230,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>25</v>
@@ -28322,7 +28322,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>25</v>
@@ -28414,7 +28414,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>101</v>
@@ -28506,7 +28506,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>45</v>
@@ -28598,7 +28598,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>25</v>
@@ -28690,7 +28690,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>113</v>
@@ -28782,7 +28782,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>76</v>
@@ -28874,7 +28874,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>25</v>
@@ -28966,7 +28966,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>25</v>
@@ -29058,7 +29058,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>61</v>
@@ -29150,10 +29150,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>77</v>
@@ -29242,7 +29242,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>45</v>
@@ -29334,7 +29334,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>25</v>
@@ -29426,7 +29426,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>109</v>
@@ -29518,7 +29518,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>25</v>
@@ -29610,7 +29610,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>25</v>
@@ -29702,10 +29702,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>26</v>
@@ -29794,7 +29794,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>254</v>
@@ -29886,7 +29886,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>25</v>
@@ -29978,7 +29978,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>25</v>
@@ -30070,7 +30070,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>25</v>
@@ -30162,7 +30162,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>48</v>
@@ -30254,7 +30254,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>21</v>
@@ -30346,7 +30346,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>25</v>
@@ -30438,7 +30438,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>64</v>
@@ -30530,7 +30530,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>25</v>
@@ -30622,10 +30622,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>22</v>
@@ -30714,7 +30714,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>25</v>
@@ -30806,7 +30806,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>21</v>
@@ -30898,10 +30898,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>52</v>
@@ -30990,7 +30990,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>25</v>
@@ -31082,7 +31082,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>180</v>
@@ -31174,7 +31174,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>143</v>
@@ -31266,7 +31266,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>113</v>
@@ -31358,7 +31358,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>25</v>
@@ -31450,7 +31450,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>413</v>
+        <v>604</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>64</v>
@@ -31542,7 +31542,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>64</v>
@@ -31634,7 +31634,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>25</v>
@@ -31726,10 +31726,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>52</v>
@@ -31818,7 +31818,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>25</v>
@@ -31910,7 +31910,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>259</v>
@@ -32002,7 +32002,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>140</v>
@@ -32094,7 +32094,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>25</v>
@@ -32186,7 +32186,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>25</v>
@@ -32278,7 +32278,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>21</v>
@@ -32370,7 +32370,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>276</v>
@@ -32462,10 +32462,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>49</v>
@@ -32554,7 +32554,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>25</v>
@@ -32646,7 +32646,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>21</v>
@@ -32738,7 +32738,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>48</v>
@@ -32830,7 +32830,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>25</v>
@@ -32922,7 +32922,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>25</v>
@@ -33014,7 +33014,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>25</v>
@@ -33106,7 +33106,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>25</v>
@@ -33198,7 +33198,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>64</v>
@@ -33290,7 +33290,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>25</v>
@@ -33382,7 +33382,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>25</v>
@@ -33474,7 +33474,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>25</v>
@@ -33566,7 +33566,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>25</v>
@@ -33658,7 +33658,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>25</v>
@@ -33750,7 +33750,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>25</v>
@@ -33842,7 +33842,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>80</v>
@@ -33934,10 +33934,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>49</v>
@@ -34026,7 +34026,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>113</v>
@@ -34118,7 +34118,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>61</v>
@@ -34210,10 +34210,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>77</v>
@@ -34302,10 +34302,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>77</v>
@@ -34394,7 +34394,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>25</v>
@@ -34486,7 +34486,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>64</v>
@@ -34578,7 +34578,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>48</v>
@@ -34670,7 +34670,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>61</v>
@@ -34762,10 +34762,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>77</v>
@@ -34854,7 +34854,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>25</v>
@@ -34946,7 +34946,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>276</v>
@@ -35038,7 +35038,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>33</v>
@@ -35130,7 +35130,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>158</v>
@@ -35222,7 +35222,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>25</v>
@@ -35314,7 +35314,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>33</v>
@@ -35406,10 +35406,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>22</v>
@@ -35498,7 +35498,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>45</v>
@@ -35590,7 +35590,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>64</v>
@@ -35682,7 +35682,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>25</v>
@@ -35774,10 +35774,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>22</v>
@@ -35866,10 +35866,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>26</v>
@@ -35958,7 +35958,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>107</v>
@@ -36050,7 +36050,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>25</v>
@@ -36142,7 +36142,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>25</v>
@@ -36234,7 +36234,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>25</v>
@@ -36326,7 +36326,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>45</v>
@@ -36418,7 +36418,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>25</v>
@@ -36510,7 +36510,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>91</v>
@@ -36602,7 +36602,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36694,7 +36694,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>166</v>
@@ -36786,7 +36786,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>25</v>
@@ -36878,7 +36878,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>61</v>
@@ -36970,7 +36970,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>25</v>
@@ -37062,7 +37062,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>109</v>
@@ -37154,7 +37154,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -37246,10 +37246,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>77</v>
@@ -37338,7 +37338,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>48</v>
@@ -37430,7 +37430,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>91</v>
@@ -37522,7 +37522,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>276</v>
@@ -37614,10 +37614,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>77</v>
@@ -37706,10 +37706,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>22</v>
@@ -37798,10 +37798,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>49</v>
@@ -37890,7 +37890,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37982,10 +37982,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>22</v>
@@ -38074,7 +38074,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>21</v>
@@ -38166,7 +38166,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38258,7 +38258,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>25</v>
@@ -38350,7 +38350,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>64</v>
@@ -38442,7 +38442,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>64</v>
@@ -38534,7 +38534,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>33</v>
@@ -38626,7 +38626,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>33</v>
@@ -38718,7 +38718,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>33</v>
@@ -38810,7 +38810,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>25</v>
@@ -38902,7 +38902,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>25</v>
@@ -38994,7 +38994,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>276</v>
@@ -39086,7 +39086,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>25</v>
@@ -39178,7 +39178,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>25</v>
@@ -39270,10 +39270,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>77</v>
@@ -39362,10 +39362,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>49</v>
@@ -39454,10 +39454,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>52</v>
@@ -39546,7 +39546,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>25</v>
@@ -39638,7 +39638,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>33</v>
@@ -39730,7 +39730,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>166</v>
@@ -39822,7 +39822,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>33</v>
@@ -39914,7 +39914,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>104</v>
@@ -40006,7 +40006,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>113</v>
@@ -40098,7 +40098,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>25</v>
@@ -40190,7 +40190,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>25</v>
@@ -40282,7 +40282,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>25</v>
@@ -40374,10 +40374,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>85</v>
@@ -40466,7 +40466,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40558,7 +40558,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>109</v>
@@ -40650,7 +40650,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>45</v>
@@ -40742,7 +40742,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>73</v>
@@ -40834,10 +40834,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>97</v>
@@ -40926,7 +40926,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>259</v>
@@ -41018,7 +41018,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>25</v>
@@ -41110,10 +41110,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>22</v>
@@ -41202,7 +41202,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>25</v>
@@ -41294,7 +41294,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>35</v>
@@ -41386,7 +41386,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>113</v>
@@ -41478,7 +41478,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>25</v>
@@ -41570,7 +41570,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>25</v>
@@ -41662,7 +41662,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>109</v>
@@ -41754,7 +41754,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>25</v>
@@ -41846,7 +41846,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>76</v>
@@ -41938,7 +41938,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>91</v>
@@ -42030,10 +42030,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>85</v>
@@ -42122,7 +42122,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>64</v>
@@ -42214,7 +42214,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>33</v>
@@ -42306,7 +42306,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>259</v>
@@ -42398,7 +42398,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>25</v>
@@ -42490,7 +42490,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>25</v>
@@ -42582,7 +42582,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>25</v>
@@ -42674,7 +42674,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>25</v>
@@ -42766,7 +42766,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>266</v>
@@ -42858,7 +42858,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>61</v>
@@ -42950,7 +42950,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>104</v>
@@ -43042,7 +43042,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>109</v>
@@ -43134,7 +43134,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>25</v>
@@ -43226,7 +43226,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>166</v>
@@ -43318,7 +43318,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>266</v>
@@ -43410,7 +43410,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>33</v>
@@ -43502,7 +43502,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>25</v>
@@ -43594,7 +43594,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>33</v>
@@ -43686,7 +43686,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>25</v>
@@ -43778,7 +43778,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>25</v>
@@ -43870,7 +43870,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>25</v>
@@ -43962,7 +43962,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>25</v>
@@ -44054,7 +44054,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>25</v>
@@ -44146,10 +44146,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>49</v>
@@ -44238,7 +44238,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>25</v>
@@ -44330,7 +44330,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>25</v>
@@ -44422,7 +44422,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>25</v>
@@ -44514,7 +44514,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>25</v>
@@ -44606,7 +44606,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>76</v>
@@ -44698,7 +44698,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>25</v>
@@ -44790,7 +44790,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>25</v>
@@ -44882,7 +44882,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>25</v>
@@ -44974,7 +44974,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>33</v>
@@ -45066,7 +45066,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45158,7 +45158,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>25</v>
@@ -45250,7 +45250,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>76</v>
@@ -45342,7 +45342,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>25</v>
@@ -45434,7 +45434,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>25</v>
@@ -45526,7 +45526,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>25</v>
@@ -45618,7 +45618,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>25</v>
@@ -45710,10 +45710,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>77</v>
@@ -45802,7 +45802,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>33</v>
@@ -45894,7 +45894,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>33</v>
@@ -45986,7 +45986,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>132</v>
@@ -46078,7 +46078,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46170,10 +46170,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>22</v>
@@ -46262,7 +46262,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>25</v>
@@ -46352,7 +46352,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>25</v>
@@ -46536,10 +46536,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>52</v>
@@ -46628,7 +46628,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>25</v>
@@ -46720,7 +46720,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>25</v>
@@ -46812,7 +46812,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>25</v>
@@ -46904,7 +46904,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>186</v>
@@ -46996,7 +46996,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>25</v>
@@ -47088,7 +47088,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>25</v>
@@ -47180,7 +47180,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>25</v>
@@ -47272,7 +47272,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>48</v>
@@ -47364,7 +47364,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>266</v>
@@ -47456,7 +47456,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>25</v>
@@ -47548,7 +47548,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>91</v>
@@ -47640,7 +47640,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>202</v>
@@ -47824,7 +47824,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>107</v>
@@ -47916,7 +47916,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>25</v>
@@ -48008,7 +48008,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>25</v>
@@ -48100,7 +48100,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
@@ -48192,7 +48192,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>25</v>
@@ -48284,7 +48284,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48376,7 +48376,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>35</v>
@@ -48468,7 +48468,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>25</v>
@@ -48560,7 +48560,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>25</v>
@@ -48652,10 +48652,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>22</v>
